--- a/s1cDNASample/s1CDNASample_hbrown_08.19.19.xlsx
+++ b/s1cDNASample/s1CDNASample_hbrown_08.19.19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/s1cDNASample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956DC53D-17B3-8746-AE0B-5EB26C091166}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F450BFA0-6EE4-484A-9349-705EC3D2B8B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="580" windowWidth="16380" windowHeight="15340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="17">
   <si>
     <t>rnaDate</t>
   </si>
@@ -79,15 +79,15 @@
   </si>
   <si>
     <t>08.19.19</t>
+  </si>
+  <si>
+    <t>False</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -135,7 +135,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,7 +453,7 @@
   <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D27"/>
+      <selection activeCell="I2" sqref="I2:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -536,9 +536,8 @@
       <c r="H2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="4" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I2" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>14</v>
@@ -585,9 +584,8 @@
       <c r="H3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="4" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I3" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>14</v>
@@ -618,9 +616,8 @@
       <c r="H4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="4" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I4" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
@@ -651,9 +648,8 @@
       <c r="H5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="4" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I5" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>14</v>
@@ -684,9 +680,8 @@
       <c r="H6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="4" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I6" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>14</v>
@@ -717,9 +712,8 @@
       <c r="H7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="4" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I7" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>14</v>
@@ -750,9 +744,8 @@
       <c r="H8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="4" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I8" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>14</v>
@@ -783,9 +776,8 @@
       <c r="H9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="4" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I9" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>14</v>
@@ -816,9 +808,8 @@
       <c r="H10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="4" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I10" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>14</v>
@@ -849,9 +840,8 @@
       <c r="H11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="4" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I11" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>14</v>
@@ -882,9 +872,8 @@
       <c r="H12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="4" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I12" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>14</v>
@@ -915,9 +904,8 @@
       <c r="H13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="4" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I13" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>14</v>
@@ -948,9 +936,8 @@
       <c r="H14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="4" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I14" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>14</v>
@@ -981,9 +968,8 @@
       <c r="H15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="4" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I15" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>14</v>
@@ -1014,9 +1000,8 @@
       <c r="H16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="4" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I16" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>14</v>
@@ -1047,9 +1032,8 @@
       <c r="H17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="4" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I17" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>14</v>
@@ -1080,9 +1064,8 @@
       <c r="H18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="4" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I18" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>14</v>
@@ -1113,9 +1096,8 @@
       <c r="H19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="4" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I19" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>14</v>
@@ -1146,9 +1128,8 @@
       <c r="H20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="4" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I20" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>14</v>
@@ -1179,9 +1160,8 @@
       <c r="H21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="4" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I21" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>14</v>
@@ -1212,9 +1192,8 @@
       <c r="H22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I22" s="4" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I22" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>14</v>
@@ -1245,9 +1224,8 @@
       <c r="H23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I23" s="4" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I23" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>14</v>
@@ -1278,9 +1256,8 @@
       <c r="H24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I24" s="4" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I24" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>14</v>
@@ -1311,9 +1288,8 @@
       <c r="H25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I25" s="4" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I25" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>14</v>
@@ -1344,9 +1320,8 @@
       <c r="H26" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I26" s="4" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I26" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>14</v>
@@ -1377,9 +1352,8 @@
       <c r="H27" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I27" s="4" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I27" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>14</v>
